--- a/medicine/Soins infirmiers et profession infirmière/Équipement_de_protection_individuelle_médical/Équipement_de_protection_individuelle_médical.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Équipement_de_protection_individuelle_médical/Équipement_de_protection_individuelle_médical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quipement_de_protection_individuelle_m%C3%A9dical</t>
+          <t>Équipement_de_protection_individuelle_médical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'équipement de protection individuelle (EPI) médical est un vêtement ou un équipement spécialisé jetable porté par un professionnel en soins de santé (médecin, infirmier, soignant, etc., sans distinction de sexe) pour se protéger d'un risque biologique[1], comme une contamination dangereuse liée à l'exposition à un liquide biologique corporel naturel (sang, salive, sueur, lymphe, mucus, urine, etc.) ou pathologique (pus), présent sous forme fluide ou d'aérosol respiratoire. Ceux-ci peuvent transporter des agents infectieux viraux (ex. : VIH, rage, Ébola, SARS-CoV-2,covid_19) ou bactériens (ex. : vibrion du choléra, Staphylocoque doré, etc.). 
-L'EPI médical crée une barrière physique entre l'élément infectieux potentiel et le travailleur de la santé, empêchant le contact et limitant la transmission[1],[2] 
-De nombreuses législations nationales obligent l'employeur des travailleurs en santé exposés à leur fournir de tels équipements de protection[notes 1],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équipement de protection individuelle (EPI) médical est un vêtement ou un équipement spécialisé jetable porté par un professionnel en soins de santé (médecin, infirmier, soignant, etc., sans distinction de sexe) pour se protéger d'un risque biologique, comme une contamination dangereuse liée à l'exposition à un liquide biologique corporel naturel (sang, salive, sueur, lymphe, mucus, urine, etc.) ou pathologique (pus), présent sous forme fluide ou d'aérosol respiratoire. Ceux-ci peuvent transporter des agents infectieux viraux (ex. : VIH, rage, Ébola, SARS-CoV-2,covid_19) ou bactériens (ex. : vibrion du choléra, Staphylocoque doré, etc.). 
+L'EPI médical crée une barrière physique entre l'élément infectieux potentiel et le travailleur de la santé, empêchant le contact et limitant la transmission, 
+De nombreuses législations nationales obligent l'employeur des travailleurs en santé exposés à leur fournir de tels équipements de protection[notes 1],.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quipement_de_protection_individuelle_m%C3%A9dical</t>
+          <t>Équipement_de_protection_individuelle_médical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Différents éléments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les composants de ces EPI comprennent[4] les gants, le masque (chirurgical, FFP), les lunettes de protection, l'écran facial, la blouse, la sur-blouse ou casaque, le bonnet, les couvre-chaussures, l'embout buccal pour réanimation cardiopulmonaire. La qualité de certains de ces équipements peut être normalisée (au niveau européen[5] ; au niveau international : certains) : les gants[6], les masques[7], les casaques[8],[9],[10], les lunettes[11], tenues de bloc opératoire[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les composants de ces EPI comprennent les gants, le masque (chirurgical, FFP), les lunettes de protection, l'écran facial, la blouse, la sur-blouse ou casaque, le bonnet, les couvre-chaussures, l'embout buccal pour réanimation cardiopulmonaire. La qualité de certains de ces équipements peut être normalisée (au niveau européen ; au niveau international : certains) : les gants, les masques, les casaques les lunettes, tenues de bloc opératoire.
 			Équipement médical de protection individuelle - Ebola 2014
 			Masque de protection FFP2 russe
 			Lunettes de protection de laboratoire
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89quipement_de_protection_individuelle_m%C3%A9dical</t>
+          <t>Équipement_de_protection_individuelle_médical</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,17 +565,99 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spécifications techniques générales
-Le nombre de composants utilisés et leur utilisation sont souvent déterminés par la réglementation ou le protocole de contrôle des infections[4] de l'établissement en question. Leur bonne mise en œuvre (habillage — déshabillage) doit faire l'objet de procédures[13]. La plupart de ces articles sont jetables pour éviter de transporter des matières infectieuses d'un patient à un autre[notes 2],[3]. 
-L'utilisation inappropriée d'équipements de protection individuelle comme les gants a été liée à une augmentation des taux de transmission des infections[14] et leur utilisation doit être compatible avec les autres moyens d'hygiène des mains utilisés[15].
+          <t>Spécifications techniques générales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre de composants utilisés et leur utilisation sont souvent déterminés par la réglementation ou le protocole de contrôle des infections de l'établissement en question. Leur bonne mise en œuvre (habillage — déshabillage) doit faire l'objet de procédures. La plupart de ces articles sont jetables pour éviter de transporter des matières infectieuses d'un patient à un autre[notes 2],. 
+L'utilisation inappropriée d'équipements de protection individuelle comme les gants a été liée à une augmentation des taux de transmission des infections et leur utilisation doit être compatible avec les autres moyens d'hygiène des mains utilisés.
 			Tenue médicale de protection individuelle - Ebola 2014
 			Tenue médicale de protection individuelle - Coronavirus 2020
 			Tenue médicale de protection individuelle - Coronavirus 2020 Allemagne
-Spécifications selon les pays
-Union européenne
-Au cours de la pandémie de Covid-19, fin mars 2020, la Commission européenne révise les références des normes harmonisées relatives aux dispositifs médicaux[18]. Elle publie également des lignes directrices pour contribuer à accroître la production de fournitures médicales sûres[19] comprenant les équipements individuels de protection avec une liste des normes européennes qui leur sont applicables[5].
-États-Unis
-Aux États-Unis, les dispositifs médicaux sont réglementés par la Food and Drug Administration.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Équipement_de_protection_individuelle_médical</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quipement_de_protection_individuelle_m%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spécifications selon les pays</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de la pandémie de Covid-19, fin mars 2020, la Commission européenne révise les références des normes harmonisées relatives aux dispositifs médicaux. Elle publie également des lignes directrices pour contribuer à accroître la production de fournitures médicales sûres comprenant les équipements individuels de protection avec une liste des normes européennes qui leur sont applicables.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Équipement_de_protection_individuelle_médical</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quipement_de_protection_individuelle_m%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spécifications selon les pays</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, les dispositifs médicaux sont réglementés par la Food and Drug Administration.
 </t>
         </is>
       </c>
